--- a/22410201.DB設計.xlsx
+++ b/22410201.DB設計.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kariy\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kariy\Documents\2022CSharp_Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71949F4C-5A0E-4908-ACE7-C704CA99E6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8721FF-9E6D-423B-A21E-F054BAADF050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7A78756B-6636-4BC2-B161-E00E0CF4E454}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -705,6 +705,10 @@
     <rPh sb="4" eb="7">
       <t>カノウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie_num</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1694,7 +1698,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1831,7 +1835,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>93</v>
@@ -2079,6 +2083,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100607CFEA9279ED04E9D3ED0C5CB906D80" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="512ecd7edbafcd1ebf62fbb9f6d3da71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d287decf-c884-4834-8617-a14e3ef844bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54e415c3962f1bffb5891f93df98a945" ns2:_="">
     <xsd:import namespace="d287decf-c884-4834-8617-a14e3ef844bb"/>
@@ -2234,22 +2253,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C89C79-E5CA-40C7-A0FE-46F45731808E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d287decf-c884-4834-8617-a14e3ef844bb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFDE22E-CF39-41C3-A7A5-9E71FC23AAF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C874D48E-1208-416F-8FEE-C5028C32DF92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2265,28 +2293,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFDE22E-CF39-41C3-A7A5-9E71FC23AAF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C89C79-E5CA-40C7-A0FE-46F45731808E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d287decf-c884-4834-8617-a14e3ef844bb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>